--- a/CO/Columbia_osa.xlsx
+++ b/CO/Columbia_osa.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="26800" windowHeight="10100"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>index</t>
   </si>
@@ -269,376 +269,35 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -661,316 +320,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1253,21 +618,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:CF46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:84">
+    <row r="1" spans="1:84">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1822,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1855,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>151.38</v>
+        <v>605.52</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1888,13 +1251,13 @@
         <v>97.48</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2542,7 +1905,7 @@
         <v>351</v>
       </c>
       <c r="C6" s="2">
-        <v>40031</v>
+        <v>40088</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2587,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2617,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>151.38</v>
+        <v>302.76</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2650,13 +2013,13 @@
         <v>97.48</v>
       </c>
       <c r="AM6">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -2773,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="CB6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC6" t="b">
         <v>1</v>
@@ -2782,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="CE6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF6" t="b">
         <v>1</v>
@@ -2793,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C7" s="2">
         <v>40127</v>
@@ -2871,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>302.76</v>
+        <v>454.14</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2892,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2904,13 +2267,13 @@
         <v>97.48</v>
       </c>
       <c r="AM7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -3039,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="CF7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:84">
@@ -3047,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C8" s="2">
         <v>40261</v>
@@ -3056,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3092,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3125,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>151.38</v>
+        <v>454.14</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -3158,14 +2521,14 @@
         <v>97.48</v>
       </c>
       <c r="AM8">
+        <v>15</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
         <v>3</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
       <c r="AP8">
         <v>0</v>
       </c>
@@ -3293,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="CF8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:84">
@@ -3301,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C9" s="2">
         <v>40263</v>
@@ -3412,7 +2775,7 @@
         <v>97.48</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -3424,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3460,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -3520,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="BW9">
+        <v>15</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
         <v>3</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
-        <v>1</v>
       </c>
       <c r="BZ9" t="b">
         <v>0</v>
@@ -3555,7 +2918,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C10" s="2">
         <v>40301</v>
@@ -3809,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C11" s="2">
         <v>40346</v>
@@ -3887,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>151.38</v>
+        <v>138.0078554786046</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -3917,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>97.48</v>
+        <v>13</v>
       </c>
       <c r="AM11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -4063,7 +3426,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C12" s="2">
         <v>40350</v>
@@ -4282,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="BW12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BX12">
         <v>0</v>
@@ -4317,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C13" s="2">
         <v>40366</v>
@@ -4563,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="CF13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:84">
@@ -4571,16 +3934,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C14" s="2">
-        <v>40402</v>
+        <v>40371</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4649,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>151.38</v>
+        <v>302.76</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -4682,13 +4045,13 @@
         <v>97.48</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -4799,22 +4162,22 @@
         <v>0</v>
       </c>
       <c r="BZ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="b">
         <v>1</v>
@@ -4825,10 +4188,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C15" s="2">
-        <v>40430</v>
+        <v>40402</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4870,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -4903,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>151.38</v>
+        <v>302.76</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -4936,13 +4299,13 @@
         <v>97.48</v>
       </c>
       <c r="AM15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AN15">
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -5053,16 +4416,16 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB15" t="b">
         <v>1</v>
       </c>
       <c r="CC15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD15" t="b">
         <v>1</v>
@@ -5071,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="CF15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:84">
@@ -5079,10 +4442,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C16" s="2">
-        <v>40431</v>
+        <v>40430</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5097,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5154,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>302.76</v>
@@ -5190,7 +4553,7 @@
         <v>97.48</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -5238,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -5298,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="BW16">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BX16">
         <v>0</v>
       </c>
       <c r="BY16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" t="b">
         <v>0</v>
@@ -5313,19 +4676,19 @@
         <v>0</v>
       </c>
       <c r="CB16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE16" t="b">
         <v>1</v>
       </c>
       <c r="CF16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:84">
@@ -5333,10 +4696,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C17" s="2">
-        <v>40441</v>
+        <v>40431</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5408,10 +4771,10 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>302.76</v>
+        <v>151.38</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -5444,122 +4807,122 @@
         <v>97.48</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>90</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
         <v>2</v>
       </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>2</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>0</v>
-      </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
-      <c r="BV17">
-        <v>0</v>
-      </c>
-      <c r="BW17">
-        <v>0</v>
-      </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-      <c r="BY17">
-        <v>0</v>
-      </c>
       <c r="BZ17" t="b">
         <v>0</v>
       </c>
@@ -5567,19 +4930,19 @@
         <v>0</v>
       </c>
       <c r="CB17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC17" t="b">
         <v>1</v>
       </c>
       <c r="CD17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:84">
@@ -5587,10 +4950,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C18" s="2">
-        <v>40444</v>
+        <v>40441</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5608,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -5632,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5665,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>605.52</v>
+        <v>151.38</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -5698,13 +5061,13 @@
         <v>97.48</v>
       </c>
       <c r="AM18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN18">
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -5815,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB18" t="b">
         <v>1</v>
@@ -5827,13 +5190,13 @@
         <v>1</v>
       </c>
       <c r="CD18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:84">
@@ -5841,10 +5204,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C19" s="2">
-        <v>40506</v>
+        <v>40444</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5919,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>302.76</v>
+        <v>454.14</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -5940,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -5952,13 +5315,13 @@
         <v>97.48</v>
       </c>
       <c r="AM19">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AN19">
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -6069,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA19" t="b">
         <v>1</v>
@@ -6081,13 +5444,13 @@
         <v>1</v>
       </c>
       <c r="CD19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:84">
@@ -6095,10 +5458,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C20" s="2">
-        <v>40735</v>
+        <v>40506</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6140,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6173,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>151.38</v>
+        <v>302.76</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -6206,13 +5569,13 @@
         <v>97.48</v>
       </c>
       <c r="AM20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AN20">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -6323,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA20" t="b">
         <v>1</v>
       </c>
       <c r="CB20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC20" t="b">
         <v>1</v>
@@ -6338,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="CE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:84">
@@ -6349,10 +5712,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C21" s="2">
-        <v>40758</v>
+        <v>40569</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6460,10 +5823,10 @@
         <v>97.48</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AN21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>1</v>
@@ -6580,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="CA21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC21" t="b">
         <v>1</v>
@@ -6592,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="CE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:84">
@@ -6603,10 +5966,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C22" s="2">
-        <v>40900</v>
+        <v>40735</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -6714,10 +6077,10 @@
         <v>97.48</v>
       </c>
       <c r="AM22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AO22">
         <v>1</v>
@@ -6831,25 +6194,25 @@
         <v>0</v>
       </c>
       <c r="BZ22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB22" t="b">
         <v>0</v>
       </c>
       <c r="CC22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE22" t="b">
         <v>1</v>
       </c>
       <c r="CF22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:84">
@@ -6857,10 +6220,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C23" s="2">
-        <v>41015</v>
+        <v>40758</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -6935,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>302.76</v>
+        <v>151.38</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -6956,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -6968,13 +6331,13 @@
         <v>97.48</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -7085,25 +6448,25 @@
         <v>0</v>
       </c>
       <c r="BZ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA23" t="b">
         <v>1</v>
       </c>
       <c r="CB23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC23" t="b">
         <v>1</v>
       </c>
       <c r="CD23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:84">
@@ -7111,10 +6474,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C24" s="2">
-        <v>41044</v>
+        <v>40900</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -7222,7 +6585,7 @@
         <v>97.48</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -7339,25 +6702,25 @@
         <v>0</v>
       </c>
       <c r="BZ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:84">
@@ -7365,10 +6728,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C25" s="2">
-        <v>41101</v>
+        <v>40940</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -7476,7 +6839,7 @@
         <v>97.48</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -7593,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="BZ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA25" t="b">
         <v>1</v>
@@ -7602,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="CC25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD25" t="b">
         <v>0</v>
@@ -7619,10 +6982,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C26" s="2">
-        <v>41106</v>
+        <v>41015</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7850,22 +7213,22 @@
         <v>1</v>
       </c>
       <c r="CA26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD26" t="b">
         <v>1</v>
       </c>
       <c r="CE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:84">
@@ -7873,10 +7236,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C27" s="2">
-        <v>41124</v>
+        <v>41029</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7984,7 +7347,7 @@
         <v>97.48</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN27">
         <v>0</v>
@@ -8101,25 +7464,25 @@
         <v>0</v>
       </c>
       <c r="BZ27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE27" t="b">
         <v>0</v>
       </c>
       <c r="CF27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:84">
@@ -8127,10 +7490,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C28" s="2">
-        <v>41204</v>
+        <v>41044</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -8172,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -8205,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>151.38</v>
+        <v>302.76</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -8238,13 +7601,13 @@
         <v>97.48</v>
       </c>
       <c r="AM28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN28">
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -8355,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="BZ28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA28" t="b">
         <v>1</v>
@@ -8364,16 +7727,16 @@
         <v>1</v>
       </c>
       <c r="CC28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE28" t="b">
         <v>0</v>
       </c>
       <c r="CF28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:84">
@@ -8381,10 +7744,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C29" s="2">
-        <v>41260</v>
+        <v>41101</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -8399,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -8459,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>302.76</v>
+        <v>151.38</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -8498,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -8609,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="BZ29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA29" t="b">
         <v>1</v>
@@ -8621,13 +7984,13 @@
         <v>1</v>
       </c>
       <c r="CD29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE29" t="b">
         <v>0</v>
       </c>
       <c r="CF29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:84">
@@ -8635,10 +7998,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C30" s="2">
-        <v>41477</v>
+        <v>41106</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8863,25 +8226,25 @@
         <v>0</v>
       </c>
       <c r="BZ30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA30" t="b">
         <v>0</v>
       </c>
       <c r="CB30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC30" t="b">
         <v>0</v>
       </c>
       <c r="CD30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE30" t="b">
         <v>1</v>
       </c>
       <c r="CF30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:84">
@@ -8889,10 +8252,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C31" s="2">
-        <v>41491</v>
+        <v>41124</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -8967,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>302.76</v>
+        <v>151.38</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -8988,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -9000,13 +8363,13 @@
         <v>97.48</v>
       </c>
       <c r="AM31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN31">
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -9117,25 +8480,25 @@
         <v>0</v>
       </c>
       <c r="BZ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:84">
@@ -9143,10 +8506,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C32" s="2">
-        <v>41660</v>
+        <v>41190</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -9254,10 +8617,10 @@
         <v>97.48</v>
       </c>
       <c r="AM32">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO32">
         <v>1</v>
@@ -9371,16 +8734,16 @@
         <v>0</v>
       </c>
       <c r="BZ32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA32" t="b">
         <v>1</v>
       </c>
       <c r="CB32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD32" t="b">
         <v>0</v>
@@ -9400,7 +8763,7 @@
         <v>430</v>
       </c>
       <c r="C33" s="2">
-        <v>41662</v>
+        <v>41204</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -9508,7 +8871,7 @@
         <v>97.48</v>
       </c>
       <c r="AM33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -9556,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="BC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33">
         <v>0</v>
@@ -9616,34 +8979,34 @@
         <v>0</v>
       </c>
       <c r="BW33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BX33">
         <v>0</v>
       </c>
       <c r="BY33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC33" t="b">
         <v>0</v>
       </c>
       <c r="CD33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:84">
@@ -9654,7 +9017,7 @@
         <v>433</v>
       </c>
       <c r="C34" s="2">
-        <v>41694</v>
+        <v>41278</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -9888,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="CC34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD34" t="b">
         <v>1</v>
@@ -9905,10 +9268,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C35" s="2">
-        <v>41919</v>
+        <v>41330</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9980,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>302.76</v>
+        <v>151.38</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -10016,13 +9379,13 @@
         <v>97.48</v>
       </c>
       <c r="AM35">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AN35">
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -10136,16 +9499,16 @@
         <v>1</v>
       </c>
       <c r="CA35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC35" t="b">
         <v>0</v>
       </c>
       <c r="CD35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE35" t="b">
         <v>1</v>
@@ -10159,10 +9522,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C36" s="2">
-        <v>41989</v>
+        <v>41477</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -10270,7 +9633,7 @@
         <v>97.48</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AN36">
         <v>0</v>
@@ -10387,25 +9750,25 @@
         <v>0</v>
       </c>
       <c r="BZ36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:84">
@@ -10413,10 +9776,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C37" s="2">
-        <v>41995</v>
+        <v>41491</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -10524,7 +9887,7 @@
         <v>97.48</v>
       </c>
       <c r="AM37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AN37">
         <v>0</v>
@@ -10641,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="BZ37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA37" t="b">
         <v>0</v>
@@ -10656,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="CE37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF37" t="b">
         <v>1</v>
@@ -10667,10 +10030,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C38" s="2">
-        <v>41999</v>
+        <v>41660</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -10712,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -10745,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>302.76</v>
+        <v>151.38</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -10784,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="AO38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -10901,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="CB38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC38" t="b">
         <v>1</v>
@@ -10921,10 +10284,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C39" s="2">
-        <v>42219</v>
+        <v>41662</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -10972,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -10999,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>151.38</v>
+        <v>302.76</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -11032,13 +10395,13 @@
         <v>97.48</v>
       </c>
       <c r="AM39">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AN39">
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -11080,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="BC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD39">
         <v>0</v>
@@ -11140,25 +10503,25 @@
         <v>0</v>
       </c>
       <c r="BW39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BX39">
         <v>0</v>
       </c>
       <c r="BY39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ39" t="b">
         <v>1</v>
       </c>
       <c r="CA39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB39" t="b">
         <v>0</v>
       </c>
       <c r="CC39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD39" t="b">
         <v>1</v>
@@ -11178,7 +10541,7 @@
         <v>452</v>
       </c>
       <c r="C40" s="2">
-        <v>42221</v>
+        <v>41694</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -11226,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -11253,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>302.76</v>
+        <v>151.38</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -11286,13 +10649,13 @@
         <v>97.48</v>
       </c>
       <c r="AM40">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AN40">
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP40">
         <v>0</v>
@@ -11334,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="BC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40">
         <v>0</v>
@@ -11394,13 +10757,13 @@
         <v>0</v>
       </c>
       <c r="BW40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BX40">
         <v>0</v>
       </c>
       <c r="BY40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ40" t="b">
         <v>0</v>
@@ -11409,19 +10772,19 @@
         <v>1</v>
       </c>
       <c r="CB40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD40" t="b">
         <v>1</v>
       </c>
       <c r="CE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:84">
@@ -11429,10 +10792,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C41" s="2">
-        <v>42222</v>
+        <v>41919</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -11540,7 +10903,7 @@
         <v>97.48</v>
       </c>
       <c r="AM41">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AN41">
         <v>0</v>
@@ -11588,13 +10951,13 @@
         <v>0</v>
       </c>
       <c r="BC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD41">
         <v>0</v>
       </c>
       <c r="BE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41">
         <v>0</v>
@@ -11648,31 +11011,31 @@
         <v>0</v>
       </c>
       <c r="BW41">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BX41">
         <v>0</v>
       </c>
       <c r="BY41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ41" t="b">
         <v>1</v>
       </c>
       <c r="CA41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD41" t="b">
         <v>0</v>
       </c>
       <c r="CE41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF41" t="b">
         <v>1</v>
@@ -11683,10 +11046,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C42" s="2">
-        <v>42304</v>
+        <v>41974</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -11794,7 +11157,7 @@
         <v>97.48</v>
       </c>
       <c r="AM42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -11937,10 +11300,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C43" s="2">
-        <v>42549</v>
+        <v>41989</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -12048,7 +11411,7 @@
         <v>97.48</v>
       </c>
       <c r="AM43">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -12165,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="BZ43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA43" t="b">
         <v>1</v>
@@ -12191,10 +11554,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C44" s="2">
-        <v>42550</v>
+        <v>41995</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -12302,7 +11665,7 @@
         <v>97.48</v>
       </c>
       <c r="AM44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN44">
         <v>0</v>
@@ -12350,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="BC44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD44">
         <v>0</v>
@@ -12410,13 +11773,13 @@
         <v>0</v>
       </c>
       <c r="BW44">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BX44">
         <v>0</v>
       </c>
       <c r="BY44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ44" t="b">
         <v>0</v>
@@ -12425,13 +11788,13 @@
         <v>0</v>
       </c>
       <c r="CB44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC44" t="b">
         <v>0</v>
       </c>
       <c r="CD44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE44" t="b">
         <v>0</v>
@@ -12445,10 +11808,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C45" s="2">
-        <v>42670</v>
+        <v>42076</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -12556,11 +11919,11 @@
         <v>97.48</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
         <v>7</v>
       </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
       <c r="AO45">
         <v>1</v>
       </c>
@@ -12676,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="CA45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB45" t="b">
         <v>1</v>
@@ -12699,16 +12062,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C46" s="2">
-        <v>42704</v>
+        <v>42110</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -12744,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -12777,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>454.14</v>
+        <v>151.38</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -12810,146 +12173,1923 @@
         <v>97.48</v>
       </c>
       <c r="AM46">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="AN46">
         <v>0</v>
       </c>
       <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
+      <c r="BT46">
+        <v>0</v>
+      </c>
+      <c r="BU46">
+        <v>0</v>
+      </c>
+      <c r="BV46">
+        <v>0</v>
+      </c>
+      <c r="BW46">
+        <v>0</v>
+      </c>
+      <c r="BX46">
+        <v>0</v>
+      </c>
+      <c r="BY46">
+        <v>0</v>
+      </c>
+      <c r="BZ46" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA46" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC46" t="b">
+        <v>0</v>
+      </c>
+      <c r="CD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:84">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>475</v>
+      </c>
+      <c r="C47" s="2">
+        <v>42191</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>151.38</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>97.48</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>0</v>
+      </c>
+      <c r="BR47">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+      <c r="BV47">
+        <v>0</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BY47">
+        <v>0</v>
+      </c>
+      <c r="BZ47" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA47" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB47" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC47" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE47" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:84">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>478</v>
+      </c>
+      <c r="C48" s="2">
+        <v>42222</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>151.38</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>97.48</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
+        <v>0</v>
+      </c>
+      <c r="BS48">
+        <v>0</v>
+      </c>
+      <c r="BT48">
+        <v>0</v>
+      </c>
+      <c r="BU48">
+        <v>0</v>
+      </c>
+      <c r="BV48">
+        <v>0</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>0</v>
+      </c>
+      <c r="BZ48" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA48" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB48" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC48" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:84">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>480</v>
+      </c>
+      <c r="C49" s="2">
+        <v>42304</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>151.38</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>97.48</v>
+      </c>
+      <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
+        <v>0</v>
+      </c>
+      <c r="BS49">
+        <v>0</v>
+      </c>
+      <c r="BT49">
+        <v>0</v>
+      </c>
+      <c r="BU49">
+        <v>0</v>
+      </c>
+      <c r="BV49">
+        <v>0</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>0</v>
+      </c>
+      <c r="BY49">
+        <v>0</v>
+      </c>
+      <c r="BZ49" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA49" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB49" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC49" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD49" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE49" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:84">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>483</v>
+      </c>
+      <c r="C50" s="2">
+        <v>42550</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>454.14</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>97.48</v>
+      </c>
+      <c r="AM50">
+        <v>35</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
         <v>3</v>
       </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>0</v>
-      </c>
-      <c r="BK46">
-        <v>0</v>
-      </c>
-      <c r="BL46">
-        <v>0</v>
-      </c>
-      <c r="BM46">
-        <v>0</v>
-      </c>
-      <c r="BN46">
-        <v>0</v>
-      </c>
-      <c r="BO46">
-        <v>0</v>
-      </c>
-      <c r="BP46">
-        <v>0</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>0</v>
-      </c>
-      <c r="BT46">
-        <v>0</v>
-      </c>
-      <c r="BU46">
-        <v>0</v>
-      </c>
-      <c r="BV46">
-        <v>0</v>
-      </c>
-      <c r="BW46">
-        <v>0</v>
-      </c>
-      <c r="BX46">
-        <v>0</v>
-      </c>
-      <c r="BY46">
-        <v>0</v>
-      </c>
-      <c r="BZ46" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA46" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB46" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC46" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD46" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE46" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF46" t="b">
-        <v>1</v>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+      <c r="BQ50">
+        <v>0</v>
+      </c>
+      <c r="BR50">
+        <v>0</v>
+      </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
+      <c r="BT50">
+        <v>0</v>
+      </c>
+      <c r="BU50">
+        <v>0</v>
+      </c>
+      <c r="BV50">
+        <v>0</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BX50">
+        <v>0</v>
+      </c>
+      <c r="BY50">
+        <v>0</v>
+      </c>
+      <c r="BZ50" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA50" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB50" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC50" t="b">
+        <v>0</v>
+      </c>
+      <c r="CD50" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:84">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>486</v>
+      </c>
+      <c r="C51" s="2">
+        <v>42649</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>151.38</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>97.48</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+      <c r="BQ51">
+        <v>0</v>
+      </c>
+      <c r="BR51">
+        <v>0</v>
+      </c>
+      <c r="BS51">
+        <v>0</v>
+      </c>
+      <c r="BT51">
+        <v>0</v>
+      </c>
+      <c r="BU51">
+        <v>0</v>
+      </c>
+      <c r="BV51">
+        <v>0</v>
+      </c>
+      <c r="BW51">
+        <v>0</v>
+      </c>
+      <c r="BX51">
+        <v>0</v>
+      </c>
+      <c r="BY51">
+        <v>0</v>
+      </c>
+      <c r="BZ51" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA51" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB51" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC51" t="b">
+        <v>0</v>
+      </c>
+      <c r="CD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:84">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>489</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42670</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>151.38</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>97.48</v>
+      </c>
+      <c r="AM52">
+        <v>7</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+      <c r="BQ52">
+        <v>0</v>
+      </c>
+      <c r="BR52">
+        <v>0</v>
+      </c>
+      <c r="BS52">
+        <v>0</v>
+      </c>
+      <c r="BT52">
+        <v>0</v>
+      </c>
+      <c r="BU52">
+        <v>0</v>
+      </c>
+      <c r="BV52">
+        <v>0</v>
+      </c>
+      <c r="BW52">
+        <v>0</v>
+      </c>
+      <c r="BX52">
+        <v>0</v>
+      </c>
+      <c r="BY52">
+        <v>0</v>
+      </c>
+      <c r="BZ52" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA52" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB52" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC52" t="b">
+        <v>0</v>
+      </c>
+      <c r="CD52" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:84">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>492</v>
+      </c>
+      <c r="C53" s="2">
+        <v>42909</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>151.38</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>97.48</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>0</v>
+      </c>
+      <c r="BR53">
+        <v>0</v>
+      </c>
+      <c r="BS53">
+        <v>0</v>
+      </c>
+      <c r="BT53">
+        <v>0</v>
+      </c>
+      <c r="BU53">
+        <v>0</v>
+      </c>
+      <c r="BV53">
+        <v>0</v>
+      </c>
+      <c r="BW53">
+        <v>0</v>
+      </c>
+      <c r="BX53">
+        <v>0</v>
+      </c>
+      <c r="BY53">
+        <v>0</v>
+      </c>
+      <c r="BZ53" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA53" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB53" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC53" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD53" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE53" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF53" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>